--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.48905470207573</v>
+        <v>7.871715666666666</v>
       </c>
       <c r="H2">
-        <v>3.48905470207573</v>
+        <v>23.615147</v>
       </c>
       <c r="I2">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="J2">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N2">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q2">
-        <v>59.6144437885733</v>
+        <v>166.0880157299476</v>
       </c>
       <c r="R2">
-        <v>59.6144437885733</v>
+        <v>1494.792141569528</v>
       </c>
       <c r="S2">
-        <v>0.00315432818083257</v>
+        <v>0.008086326974799437</v>
       </c>
       <c r="T2">
-        <v>0.00315432818083257</v>
+        <v>0.008086326974799437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.48905470207573</v>
+        <v>7.871715666666666</v>
       </c>
       <c r="H3">
-        <v>3.48905470207573</v>
+        <v>23.615147</v>
       </c>
       <c r="I3">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="J3">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N3">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q3">
-        <v>124.2895990199171</v>
+        <v>281.9604286518901</v>
       </c>
       <c r="R3">
-        <v>124.2895990199171</v>
+        <v>2537.643857867011</v>
       </c>
       <c r="S3">
-        <v>0.006576429466713427</v>
+        <v>0.0137278069703778</v>
       </c>
       <c r="T3">
-        <v>0.006576429466713427</v>
+        <v>0.0137278069703778</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.48905470207573</v>
+        <v>7.871715666666666</v>
       </c>
       <c r="H4">
-        <v>3.48905470207573</v>
+        <v>23.615147</v>
       </c>
       <c r="I4">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="J4">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N4">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q4">
-        <v>53.33791007033231</v>
+        <v>121.2850072382478</v>
       </c>
       <c r="R4">
-        <v>53.33791007033231</v>
+        <v>1091.56506514423</v>
       </c>
       <c r="S4">
-        <v>0.002822223309476071</v>
+        <v>0.005905002967005448</v>
       </c>
       <c r="T4">
-        <v>0.002822223309476071</v>
+        <v>0.005905002967005448</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>264.648174721028</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H5">
-        <v>264.648174721028</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I5">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065047</v>
       </c>
       <c r="J5">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065045</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N5">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q5">
-        <v>4521.813236768454</v>
+        <v>5615.201186661582</v>
       </c>
       <c r="R5">
-        <v>4521.813236768454</v>
+        <v>50536.81067995424</v>
       </c>
       <c r="S5">
-        <v>0.2392588442456358</v>
+        <v>0.2733872918227662</v>
       </c>
       <c r="T5">
-        <v>0.2392588442456358</v>
+        <v>0.2733872918227663</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>264.648174721028</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H6">
-        <v>264.648174721028</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I6">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065047</v>
       </c>
       <c r="J6">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065045</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N6">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q6">
-        <v>9427.48633257616</v>
+        <v>9532.683779737763</v>
       </c>
       <c r="R6">
-        <v>9427.48633257616</v>
+        <v>85794.15401763987</v>
       </c>
       <c r="S6">
-        <v>0.4988285375726149</v>
+        <v>0.4641177610048799</v>
       </c>
       <c r="T6">
-        <v>0.4988285375726149</v>
+        <v>0.4641177610048799</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>264.648174721028</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H7">
-        <v>264.648174721028</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I7">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065047</v>
       </c>
       <c r="J7">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065045</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N7">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q7">
-        <v>4045.732081858716</v>
+        <v>4100.47476077871</v>
       </c>
       <c r="R7">
-        <v>4045.732081858716</v>
+        <v>36904.2728470084</v>
       </c>
       <c r="S7">
-        <v>0.2140683684505242</v>
+        <v>0.1996398085788584</v>
       </c>
       <c r="T7">
-        <v>0.2140683684505242</v>
+        <v>0.1996398085788584</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.809077834215261</v>
+        <v>9.977966333333333</v>
       </c>
       <c r="H8">
-        <v>9.809077834215261</v>
+        <v>29.933899</v>
       </c>
       <c r="I8">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131278</v>
       </c>
       <c r="J8">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131277</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N8">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q8">
-        <v>167.5991834744452</v>
+        <v>210.5285174795085</v>
       </c>
       <c r="R8">
-        <v>167.5991834744452</v>
+        <v>1894.756657315576</v>
       </c>
       <c r="S8">
-        <v>0.008868032542464202</v>
+        <v>0.01025000161737811</v>
       </c>
       <c r="T8">
-        <v>0.008868032542464202</v>
+        <v>0.01025000161737811</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.809077834215261</v>
+        <v>9.977966333333333</v>
       </c>
       <c r="H9">
-        <v>9.809077834215261</v>
+        <v>29.933899</v>
       </c>
       <c r="I9">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131278</v>
       </c>
       <c r="J9">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131277</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N9">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q9">
-        <v>349.4259777711302</v>
+        <v>357.4051431169319</v>
       </c>
       <c r="R9">
-        <v>349.4259777711302</v>
+        <v>3216.646288052387</v>
       </c>
       <c r="S9">
-        <v>0.01848887851252113</v>
+        <v>0.01740098367131845</v>
       </c>
       <c r="T9">
-        <v>0.01848887851252113</v>
+        <v>0.01740098367131845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.809077834215261</v>
+        <v>9.977966333333333</v>
       </c>
       <c r="H10">
-        <v>9.809077834215261</v>
+        <v>29.933899</v>
       </c>
       <c r="I10">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131278</v>
       </c>
       <c r="J10">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131277</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N10">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q10">
-        <v>149.9534275237934</v>
+        <v>153.7374786142122</v>
       </c>
       <c r="R10">
-        <v>149.9534275237934</v>
+        <v>1383.63730752791</v>
       </c>
       <c r="S10">
-        <v>0.007934357719217695</v>
+        <v>0.007485016392616207</v>
       </c>
       <c r="T10">
-        <v>0.007934357719217695</v>
+        <v>0.007485016392616207</v>
       </c>
     </row>
   </sheetData>
